--- a/data/outputs/saldos_data.xlsx
+++ b/data/outputs/saldos_data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="saldos_global" sheetId="1" r:id="rId1"/>
     <sheet name="saldo_por_destino" sheetId="2" r:id="rId2"/>
     <sheet name="saldo_por_destino_serie" sheetId="3" r:id="rId3"/>
+    <sheet name="saldo_por_fuente" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -903,19 +904,19 @@
         <v>42461</v>
       </c>
       <c r="B27">
-        <v>88.40579710144928</v>
+        <v>88.57142857142857</v>
       </c>
       <c r="C27">
-        <v>2.898550724637681</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D27">
-        <v>8.695652173913043</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27">
-        <v>85.50724637681159</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="28">
@@ -1023,19 +1024,19 @@
         <v>43009</v>
       </c>
       <c r="B33">
-        <v>82.97872340425532</v>
+        <v>83.15789473684211</v>
       </c>
       <c r="C33">
-        <v>9.574468085106384</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="D33">
-        <v>7.446808510638298</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
       <c r="F33">
-        <v>73.40425531914893</v>
+        <v>73.68421052631579</v>
       </c>
     </row>
     <row r="34">
@@ -1103,19 +1104,19 @@
         <v>43374</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>80.35714285714286</v>
       </c>
       <c r="C37">
-        <v>12.72727272727273</v>
+        <v>12.5</v>
       </c>
       <c r="D37">
-        <v>7.272727272727272</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="E37">
         <v>100</v>
       </c>
       <c r="F37">
-        <v>67.27272727272728</v>
+        <v>67.85714285714286</v>
       </c>
     </row>
     <row r="38">
@@ -1123,19 +1124,19 @@
         <v>43466</v>
       </c>
       <c r="B38">
-        <v>83.13725490196079</v>
+        <v>83.203125</v>
       </c>
       <c r="C38">
-        <v>9.411764705882353</v>
+        <v>9.375</v>
       </c>
       <c r="D38">
-        <v>7.450980392156863</v>
+        <v>7.421875</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
       <c r="F38">
-        <v>73.72549019607844</v>
+        <v>73.828125</v>
       </c>
     </row>
     <row r="39">
@@ -1163,19 +1164,19 @@
         <v>43647</v>
       </c>
       <c r="B40">
-        <v>81.71428571428572</v>
+        <v>81.56424581005587</v>
       </c>
       <c r="C40">
-        <v>7.428571428571429</v>
+        <v>7.262569832402235</v>
       </c>
       <c r="D40">
-        <v>10.85714285714286</v>
+        <v>11.1731843575419</v>
       </c>
       <c r="E40">
         <v>100</v>
       </c>
       <c r="F40">
-        <v>74.28571428571429</v>
+        <v>74.30167597765363</v>
       </c>
     </row>
     <row r="41">
@@ -1183,19 +1184,19 @@
         <v>43739</v>
       </c>
       <c r="B41">
-        <v>85.05747126436781</v>
+        <v>85.14285714285714</v>
       </c>
       <c r="C41">
-        <v>8.620689655172415</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="D41">
-        <v>6.321839080459771</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>76.43678160919539</v>
+        <v>76.57142857142857</v>
       </c>
     </row>
     <row r="42">
@@ -1203,19 +1204,19 @@
         <v>43831</v>
       </c>
       <c r="B42">
-        <v>82.92682926829268</v>
+        <v>83.04498269896193</v>
       </c>
       <c r="C42">
-        <v>9.059233449477352</v>
+        <v>8.996539792387544</v>
       </c>
       <c r="D42">
-        <v>8.013937282229964</v>
+        <v>7.958477508650519</v>
       </c>
       <c r="E42">
         <v>100</v>
       </c>
       <c r="F42">
-        <v>73.86759581881533</v>
+        <v>74.04844290657439</v>
       </c>
     </row>
     <row r="43">
@@ -1263,19 +1264,19 @@
         <v>44105</v>
       </c>
       <c r="B45">
-        <v>88.88888888888889</v>
+        <v>89.39393939393939</v>
       </c>
       <c r="C45">
-        <v>7.936507936507936</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="D45">
-        <v>3.174603174603174</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="E45">
         <v>100</v>
       </c>
       <c r="F45">
-        <v>80.95238095238095</v>
+        <v>81.81818181818181</v>
       </c>
     </row>
     <row r="46">
@@ -1303,19 +1304,19 @@
         <v>44287</v>
       </c>
       <c r="B47">
-        <v>83.46456692913385</v>
+        <v>83.84615384615385</v>
       </c>
       <c r="C47">
-        <v>10.23622047244094</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>6.299212598425196</v>
+        <v>6.153846153846154</v>
       </c>
       <c r="E47">
         <v>100</v>
       </c>
       <c r="F47">
-        <v>73.2283464566929</v>
+        <v>73.84615384615385</v>
       </c>
     </row>
     <row r="48">
@@ -1343,19 +1344,19 @@
         <v>44470</v>
       </c>
       <c r="B49">
-        <v>73.64864864864865</v>
+        <v>73.85620915032681</v>
       </c>
       <c r="C49">
-        <v>13.51351351351351</v>
+        <v>13.0718954248366</v>
       </c>
       <c r="D49">
-        <v>12.83783783783784</v>
+        <v>13.0718954248366</v>
       </c>
       <c r="E49">
         <v>100</v>
       </c>
       <c r="F49">
-        <v>60.13513513513513</v>
+        <v>60.7843137254902</v>
       </c>
     </row>
     <row r="50">
@@ -1363,19 +1364,19 @@
         <v>44562</v>
       </c>
       <c r="B50">
-        <v>80</v>
+        <v>80.25751072961373</v>
       </c>
       <c r="C50">
-        <v>12.60869565217391</v>
+        <v>12.44635193133047</v>
       </c>
       <c r="D50">
-        <v>7.391304347826087</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="E50">
         <v>100</v>
       </c>
       <c r="F50">
-        <v>67.39130434782609</v>
+        <v>67.81115879828326</v>
       </c>
     </row>
     <row r="51">
@@ -1383,19 +1384,19 @@
         <v>44652</v>
       </c>
       <c r="B51">
-        <v>80.64516129032258</v>
+        <v>79.8941798941799</v>
       </c>
       <c r="C51">
-        <v>12.36559139784946</v>
+        <v>12.16931216931217</v>
       </c>
       <c r="D51">
-        <v>6.989247311827956</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
-        <v>68.27956989247312</v>
+        <v>67.72486772486774</v>
       </c>
     </row>
     <row r="52">
@@ -1403,19 +1404,19 @@
         <v>44743</v>
       </c>
       <c r="B52">
-        <v>74.69879518072288</v>
+        <v>74.40476190476191</v>
       </c>
       <c r="C52">
-        <v>13.85542168674699</v>
+        <v>13.69047619047619</v>
       </c>
       <c r="D52">
-        <v>11.44578313253012</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="E52">
         <v>100</v>
       </c>
       <c r="F52">
-        <v>60.8433734939759</v>
+        <v>60.71428571428572</v>
       </c>
     </row>
     <row r="53">
@@ -1423,19 +1424,19 @@
         <v>44835</v>
       </c>
       <c r="B53">
-        <v>84.79532163742689</v>
+        <v>85.05747126436781</v>
       </c>
       <c r="C53">
-        <v>8.771929824561402</v>
+        <v>8.620689655172415</v>
       </c>
       <c r="D53">
-        <v>6.432748538011696</v>
+        <v>6.321839080459771</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53">
-        <v>76.0233918128655</v>
+        <v>76.43678160919539</v>
       </c>
     </row>
     <row r="54">
@@ -1443,19 +1444,19 @@
         <v>44927</v>
       </c>
       <c r="B54">
-        <v>79.32098765432099</v>
+        <v>79.20489296636084</v>
       </c>
       <c r="C54">
-        <v>13.27160493827161</v>
+        <v>13.45565749235474</v>
       </c>
       <c r="D54">
-        <v>7.407407407407407</v>
+        <v>7.339449541284404</v>
       </c>
       <c r="E54">
         <v>100</v>
       </c>
       <c r="F54">
-        <v>66.04938271604938</v>
+        <v>65.7492354740061</v>
       </c>
     </row>
     <row r="55">
@@ -1463,19 +1464,19 @@
         <v>45017</v>
       </c>
       <c r="B55">
-        <v>81.73913043478261</v>
+        <v>81.46551724137932</v>
       </c>
       <c r="C55">
-        <v>11.30434782608696</v>
+        <v>11.20689655172414</v>
       </c>
       <c r="D55">
-        <v>6.956521739130435</v>
+        <v>7.327586206896551</v>
       </c>
       <c r="E55">
         <v>100</v>
       </c>
       <c r="F55">
-        <v>70.43478260869566</v>
+        <v>70.25862068965517</v>
       </c>
     </row>
     <row r="56">
@@ -1483,19 +1484,19 @@
         <v>45108</v>
       </c>
       <c r="B56">
-        <v>80.88235294117648</v>
+        <v>81.15942028985508</v>
       </c>
       <c r="C56">
-        <v>9.803921568627452</v>
+        <v>9.661835748792271</v>
       </c>
       <c r="D56">
-        <v>9.313725490196079</v>
+        <v>9.178743961352657</v>
       </c>
       <c r="E56">
         <v>100</v>
       </c>
       <c r="F56">
-        <v>71.07843137254903</v>
+        <v>71.49758454106281</v>
       </c>
     </row>
     <row r="57">
@@ -1503,19 +1504,19 @@
         <v>45200</v>
       </c>
       <c r="B57">
-        <v>78.08764940239044</v>
+        <v>77.95275590551181</v>
       </c>
       <c r="C57">
-        <v>12.74900398406374</v>
+        <v>12.59842519685039</v>
       </c>
       <c r="D57">
-        <v>9.163346613545817</v>
+        <v>9.448818897637794</v>
       </c>
       <c r="E57">
         <v>100</v>
       </c>
       <c r="F57">
-        <v>65.33864541832669</v>
+        <v>65.35433070866142</v>
       </c>
     </row>
     <row r="58">
@@ -1523,19 +1524,19 @@
         <v>45292</v>
       </c>
       <c r="B58">
-        <v>77.82178217821783</v>
+        <v>77.95275590551181</v>
       </c>
       <c r="C58">
-        <v>14.85148514851485</v>
+        <v>14.76377952755905</v>
       </c>
       <c r="D58">
-        <v>7.326732673267326</v>
+        <v>7.283464566929133</v>
       </c>
       <c r="E58">
         <v>100</v>
       </c>
       <c r="F58">
-        <v>62.97029702970298</v>
+        <v>63.18897637795276</v>
       </c>
     </row>
     <row r="59">
@@ -1543,19 +1544,19 @@
         <v>45383</v>
       </c>
       <c r="B59">
-        <v>78.01204819277109</v>
+        <v>78.07807807807808</v>
       </c>
       <c r="C59">
-        <v>11.74698795180723</v>
+        <v>11.71171171171171</v>
       </c>
       <c r="D59">
-        <v>10.24096385542169</v>
+        <v>10.21021021021021</v>
       </c>
       <c r="E59">
         <v>100</v>
       </c>
       <c r="F59">
-        <v>66.26506024096386</v>
+        <v>66.36636636636636</v>
       </c>
     </row>
     <row r="60">
@@ -1563,19 +1564,19 @@
         <v>45474</v>
       </c>
       <c r="B60">
-        <v>79.70588235294119</v>
+        <v>79.94269340974212</v>
       </c>
       <c r="C60">
-        <v>13.23529411764706</v>
+        <v>13.18051575931232</v>
       </c>
       <c r="D60">
-        <v>7.058823529411764</v>
+        <v>6.876790830945559</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
       <c r="F60">
-        <v>66.47058823529413</v>
+        <v>66.76217765042981</v>
       </c>
     </row>
     <row r="61">
@@ -1583,19 +1584,19 @@
         <v>45566</v>
       </c>
       <c r="B61">
-        <v>79.76878612716763</v>
+        <v>79.46768060836501</v>
       </c>
       <c r="C61">
-        <v>12.71676300578035</v>
+        <v>12.92775665399239</v>
       </c>
       <c r="D61">
-        <v>7.514450867052023</v>
+        <v>7.604562737642586</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <v>67.05202312138728</v>
+        <v>66.53992395437263</v>
       </c>
     </row>
     <row r="62">
@@ -1603,19 +1604,19 @@
         <v>45658</v>
       </c>
       <c r="B62">
-        <v>77.65190525231719</v>
+        <v>77.70522388059702</v>
       </c>
       <c r="C62">
-        <v>14.62409886714727</v>
+        <v>14.36567164179104</v>
       </c>
       <c r="D62">
-        <v>7.723995880535531</v>
+        <v>7.929104477611941</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62">
-        <v>63.02780638516992</v>
+        <v>63.33955223880597</v>
       </c>
     </row>
     <row r="63">
@@ -1623,19 +1624,19 @@
         <v>45748</v>
       </c>
       <c r="B63">
-        <v>81.17953165654814</v>
+        <v>81.15141955835962</v>
       </c>
       <c r="C63">
-        <v>12.92281006071119</v>
+        <v>12.61829652996845</v>
       </c>
       <c r="D63">
-        <v>5.897658282740677</v>
+        <v>6.230283911671925</v>
       </c>
       <c r="E63">
         <v>100</v>
       </c>
       <c r="F63">
-        <v>68.25672159583695</v>
+        <v>68.53312302839117</v>
       </c>
     </row>
     <row r="64">
@@ -1643,19 +1644,19 @@
         <v>45839</v>
       </c>
       <c r="B64">
-        <v>77.6937618147448</v>
+        <v>78.125</v>
       </c>
       <c r="C64">
-        <v>18.52551984877127</v>
+        <v>17.83854166666666</v>
       </c>
       <c r="D64">
-        <v>3.780718336483932</v>
+        <v>4.036458333333334</v>
       </c>
       <c r="E64">
         <v>100</v>
       </c>
       <c r="F64">
-        <v>59.16824196597354</v>
+        <v>60.28645833333334</v>
       </c>
     </row>
   </sheetData>
@@ -1710,19 +1711,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.42857142857143</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="C2">
-        <v>7.000000000000001</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D2">
-        <v>77.57142857142857</v>
+        <v>77.63888888888889</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>62.14285714285714</v>
+        <v>62.36111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -1732,19 +1733,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>11.71548117154812</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="C3">
-        <v>12.13389121338912</v>
+        <v>12.70491803278689</v>
       </c>
       <c r="D3">
-        <v>76.15062761506276</v>
+        <v>75.81967213114754</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>64.43514644351464</v>
+        <v>64.34426229508196</v>
       </c>
     </row>
     <row r="4">
@@ -1754,19 +1755,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>13.08489773045671</v>
+        <v>13.35653104925054</v>
       </c>
       <c r="C4">
-        <v>8.685906416363128</v>
+        <v>8.511777301927195</v>
       </c>
       <c r="D4">
-        <v>78.22919585318017</v>
+        <v>78.13169164882227</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>65.14429812272346</v>
+        <v>64.77516059957173</v>
       </c>
     </row>
     <row r="5">
@@ -1776,19 +1777,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>11.65824915824916</v>
+        <v>11.5415986949429</v>
       </c>
       <c r="C5">
-        <v>7.07070707070707</v>
+        <v>7.01468189233279</v>
       </c>
       <c r="D5">
-        <v>81.27104377104376</v>
+        <v>81.44371941272431</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>69.6127946127946</v>
+        <v>69.9021207177814</v>
       </c>
     </row>
     <row r="6">
@@ -1820,19 +1821,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>11.19842829076621</v>
+        <v>11.04651162790698</v>
       </c>
       <c r="C7">
-        <v>5.50098231827112</v>
+        <v>5.426356589147287</v>
       </c>
       <c r="D7">
-        <v>83.30058939096267</v>
+        <v>83.52713178294574</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>72.10216110019647</v>
+        <v>72.48062015503876</v>
       </c>
     </row>
     <row r="8">
@@ -1842,19 +1843,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>10.05056890012642</v>
+        <v>10.21303258145363</v>
       </c>
       <c r="C8">
-        <v>4.108723135271807</v>
+        <v>4.135338345864661</v>
       </c>
       <c r="D8">
-        <v>85.84070796460178</v>
+        <v>85.6516290726817</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8">
-        <v>75.79013906447535</v>
+        <v>75.43859649122807</v>
       </c>
     </row>
   </sheetData>
@@ -5620,19 +5621,19 @@
         </is>
       </c>
       <c r="C150">
-        <v>80</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="F150">
         <v>100</v>
       </c>
       <c r="G150">
-        <v>65</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="151">
@@ -5670,19 +5671,19 @@
         </is>
       </c>
       <c r="C152">
-        <v>73.91304347826086</v>
+        <v>75</v>
       </c>
       <c r="D152">
-        <v>8.695652173913043</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E152">
-        <v>17.39130434782609</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F152">
         <v>100</v>
       </c>
       <c r="G152">
-        <v>65.21739130434781</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="153">
@@ -5845,19 +5846,19 @@
         </is>
       </c>
       <c r="C159">
-        <v>85.71428571428571</v>
+        <v>86.04651162790698</v>
       </c>
       <c r="D159">
-        <v>4.761904761904762</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="E159">
-        <v>9.523809523809524</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="F159">
         <v>100</v>
       </c>
       <c r="G159">
-        <v>80.95238095238095</v>
+        <v>81.39534883720931</v>
       </c>
     </row>
     <row r="160">
@@ -6145,19 +6146,19 @@
         </is>
       </c>
       <c r="C171">
-        <v>71.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D171">
-        <v>14.28571428571428</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E171">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="F171">
         <v>100</v>
       </c>
       <c r="G171">
-        <v>57.14285714285715</v>
+        <v>53.33333333333332</v>
       </c>
     </row>
     <row r="172">
@@ -6195,19 +6196,19 @@
         </is>
       </c>
       <c r="C173">
-        <v>73.77049180327869</v>
+        <v>75</v>
       </c>
       <c r="D173">
-        <v>6.557377049180328</v>
+        <v>6.25</v>
       </c>
       <c r="E173">
-        <v>19.67213114754098</v>
+        <v>18.75</v>
       </c>
       <c r="F173">
         <v>100</v>
       </c>
       <c r="G173">
-        <v>67.21311475409836</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="174">
@@ -6370,19 +6371,19 @@
         </is>
       </c>
       <c r="C180">
-        <v>77.5</v>
+        <v>78.04878048780488</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="E180">
-        <v>12.5</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="F180">
         <v>100</v>
       </c>
       <c r="G180">
-        <v>67.5</v>
+        <v>68.29268292682927</v>
       </c>
     </row>
     <row r="181">
@@ -6545,19 +6546,19 @@
         </is>
       </c>
       <c r="C187">
-        <v>76.71232876712328</v>
+        <v>77.02702702702703</v>
       </c>
       <c r="D187">
-        <v>9.58904109589041</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="E187">
-        <v>13.6986301369863</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="F187">
         <v>100</v>
       </c>
       <c r="G187">
-        <v>67.12328767123287</v>
+        <v>67.56756756756758</v>
       </c>
     </row>
     <row r="188">
@@ -6595,19 +6596,19 @@
         </is>
       </c>
       <c r="C189">
-        <v>84.61538461538461</v>
+        <v>84.84848484848484</v>
       </c>
       <c r="D189">
-        <v>10.76923076923077</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="E189">
-        <v>4.615384615384616</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="F189">
         <v>100</v>
       </c>
       <c r="G189">
-        <v>73.84615384615384</v>
+        <v>74.24242424242424</v>
       </c>
     </row>
     <row r="190">
@@ -7020,19 +7021,19 @@
         </is>
       </c>
       <c r="C206">
-        <v>88.88888888888889</v>
+        <v>90</v>
       </c>
       <c r="D206">
-        <v>5.555555555555555</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>5.555555555555555</v>
+        <v>5</v>
       </c>
       <c r="F206">
         <v>100</v>
       </c>
       <c r="G206">
-        <v>83.33333333333333</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207">
@@ -7045,10 +7046,10 @@
         </is>
       </c>
       <c r="C207">
-        <v>89.47368421052632</v>
+        <v>90</v>
       </c>
       <c r="D207">
-        <v>10.52631578947368</v>
+        <v>10</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -7057,7 +7058,7 @@
         <v>100</v>
       </c>
       <c r="G207">
-        <v>78.94736842105263</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208">
@@ -7345,19 +7346,19 @@
         </is>
       </c>
       <c r="C219">
-        <v>76.47058823529412</v>
+        <v>77.14285714285715</v>
       </c>
       <c r="D219">
-        <v>11.76470588235294</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="E219">
-        <v>11.76470588235294</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="F219">
         <v>100</v>
       </c>
       <c r="G219">
-        <v>64.70588235294117</v>
+        <v>65.71428571428572</v>
       </c>
     </row>
     <row r="220">
@@ -7395,19 +7396,19 @@
         </is>
       </c>
       <c r="C221">
-        <v>82.85714285714286</v>
+        <v>83.78378378378379</v>
       </c>
       <c r="D221">
-        <v>11.42857142857143</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="E221">
-        <v>5.714285714285714</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="F221">
         <v>100</v>
       </c>
       <c r="G221">
-        <v>71.42857142857143</v>
+        <v>72.97297297297298</v>
       </c>
     </row>
     <row r="222">
@@ -7670,19 +7671,19 @@
         </is>
       </c>
       <c r="C232">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="D232">
-        <v>11.11111111111111</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="F232">
         <v>100</v>
       </c>
       <c r="G232">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233">
@@ -7695,19 +7696,19 @@
         </is>
       </c>
       <c r="C233">
-        <v>71.42857142857143</v>
+        <v>72.88135593220339</v>
       </c>
       <c r="D233">
-        <v>10.71428571428571</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="E233">
-        <v>17.85714285714286</v>
+        <v>16.94915254237288</v>
       </c>
       <c r="F233">
         <v>100</v>
       </c>
       <c r="G233">
-        <v>60.71428571428572</v>
+        <v>62.71186440677966</v>
       </c>
     </row>
     <row r="234">
@@ -7745,19 +7746,19 @@
         </is>
       </c>
       <c r="C235">
-        <v>76.74418604651163</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="D235">
-        <v>11.62790697674419</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="E235">
-        <v>11.62790697674419</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="F235">
         <v>100</v>
       </c>
       <c r="G235">
-        <v>65.11627906976744</v>
+        <v>65.90909090909091</v>
       </c>
     </row>
     <row r="236">
@@ -7870,19 +7871,19 @@
         </is>
       </c>
       <c r="C240">
-        <v>84.50704225352112</v>
+        <v>84.93150684931507</v>
       </c>
       <c r="D240">
-        <v>5.633802816901409</v>
+        <v>5.47945205479452</v>
       </c>
       <c r="E240">
-        <v>9.859154929577464</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="F240">
         <v>100</v>
       </c>
       <c r="G240">
-        <v>78.87323943661971</v>
+        <v>79.45205479452055</v>
       </c>
     </row>
     <row r="241">
@@ -7920,19 +7921,19 @@
         </is>
       </c>
       <c r="C242">
-        <v>77.41935483870968</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D242">
-        <v>17.74193548387097</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="E242">
-        <v>4.838709677419355</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="F242">
         <v>100</v>
       </c>
       <c r="G242">
-        <v>59.67741935483871</v>
+        <v>60.31746031746033</v>
       </c>
     </row>
     <row r="243">
@@ -8020,19 +8021,19 @@
         </is>
       </c>
       <c r="C246">
-        <v>82.35294117647058</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>17.64705882352941</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="F246">
         <v>100</v>
       </c>
       <c r="G246">
-        <v>82.35294117647058</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="247">
@@ -8095,19 +8096,19 @@
         </is>
       </c>
       <c r="C249">
-        <v>83.07692307692308</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D249">
-        <v>9.230769230769232</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="E249">
-        <v>7.692307692307693</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="F249">
         <v>100</v>
       </c>
       <c r="G249">
-        <v>73.84615384615385</v>
+        <v>74.24242424242425</v>
       </c>
     </row>
     <row r="250">
@@ -8170,19 +8171,19 @@
         </is>
       </c>
       <c r="C252">
-        <v>86.66666666666667</v>
+        <v>87.5</v>
       </c>
       <c r="D252">
-        <v>6.666666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="E252">
-        <v>6.666666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="F252">
         <v>100</v>
       </c>
       <c r="G252">
-        <v>80</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="253">
@@ -8220,19 +8221,19 @@
         </is>
       </c>
       <c r="C254">
-        <v>74.60317460317461</v>
+        <v>73.4375</v>
       </c>
       <c r="D254">
-        <v>9.523809523809524</v>
+        <v>9.375</v>
       </c>
       <c r="E254">
-        <v>15.87301587301587</v>
+        <v>17.1875</v>
       </c>
       <c r="F254">
         <v>100</v>
       </c>
       <c r="G254">
-        <v>65.07936507936509</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="255">
@@ -8395,19 +8396,19 @@
         </is>
       </c>
       <c r="C261">
-        <v>90.47619047619048</v>
+        <v>90.76923076923077</v>
       </c>
       <c r="D261">
-        <v>7.936507936507936</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E261">
-        <v>1.587301587301587</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="F261">
         <v>100</v>
       </c>
       <c r="G261">
-        <v>82.53968253968254</v>
+        <v>83.07692307692308</v>
       </c>
     </row>
     <row r="262">
@@ -8445,19 +8446,19 @@
         </is>
       </c>
       <c r="C263">
-        <v>82.14285714285714</v>
+        <v>82.45614035087719</v>
       </c>
       <c r="D263">
-        <v>7.142857142857142</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="E263">
-        <v>10.71428571428571</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F263">
         <v>100</v>
       </c>
       <c r="G263">
-        <v>75</v>
+        <v>75.43859649122807</v>
       </c>
     </row>
     <row r="264">
@@ -8570,19 +8571,19 @@
         </is>
       </c>
       <c r="C268">
-        <v>75.65217391304347</v>
+        <v>76.06837606837607</v>
       </c>
       <c r="D268">
-        <v>11.30434782608696</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="E268">
-        <v>13.04347826086956</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="F268">
         <v>100</v>
       </c>
       <c r="G268">
-        <v>64.34782608695652</v>
+        <v>64.95726495726495</v>
       </c>
     </row>
     <row r="269">
@@ -8620,19 +8621,19 @@
         </is>
       </c>
       <c r="C270">
-        <v>84.41558441558441</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D270">
-        <v>12.98701298701299</v>
+        <v>14.1025641025641</v>
       </c>
       <c r="E270">
-        <v>2.597402597402597</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="F270">
         <v>100</v>
       </c>
       <c r="G270">
-        <v>71.42857142857142</v>
+        <v>69.23076923076924</v>
       </c>
     </row>
     <row r="271">
@@ -8745,19 +8746,19 @@
         </is>
       </c>
       <c r="C275">
-        <v>80.19801980198021</v>
+        <v>80.3921568627451</v>
       </c>
       <c r="D275">
-        <v>13.86138613861386</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="E275">
-        <v>5.940594059405941</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="F275">
         <v>100</v>
       </c>
       <c r="G275">
-        <v>66.33663366336634</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="276">
@@ -8795,19 +8796,19 @@
         </is>
       </c>
       <c r="C277">
-        <v>84</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="E277">
-        <v>6</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="F277">
         <v>100</v>
       </c>
       <c r="G277">
-        <v>74</v>
+        <v>72.54901960784312</v>
       </c>
     </row>
     <row r="278">
@@ -8895,10 +8896,10 @@
         </is>
       </c>
       <c r="C281">
-        <v>75</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="D281">
-        <v>25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -8907,7 +8908,7 @@
         <v>100</v>
       </c>
       <c r="G281">
-        <v>50</v>
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="282">
@@ -8970,19 +8971,19 @@
         </is>
       </c>
       <c r="C284">
-        <v>78.84615384615384</v>
+        <v>79.62962962962963</v>
       </c>
       <c r="D284">
-        <v>7.692307692307693</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="E284">
-        <v>13.46153846153846</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="F284">
         <v>100</v>
       </c>
       <c r="G284">
-        <v>71.15384615384615</v>
+        <v>72.22222222222223</v>
       </c>
     </row>
     <row r="285">
@@ -9095,19 +9096,19 @@
         </is>
       </c>
       <c r="C289">
-        <v>75.67567567567568</v>
+        <v>75.22123893805309</v>
       </c>
       <c r="D289">
-        <v>11.71171171171171</v>
+        <v>11.50442477876106</v>
       </c>
       <c r="E289">
-        <v>12.61261261261261</v>
+        <v>13.27433628318584</v>
       </c>
       <c r="F289">
         <v>100</v>
       </c>
       <c r="G289">
-        <v>63.96396396396396</v>
+        <v>63.71681415929203</v>
       </c>
     </row>
     <row r="290">
@@ -9145,19 +9146,19 @@
         </is>
       </c>
       <c r="C291">
-        <v>77.02702702702703</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="D291">
-        <v>13.51351351351351</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E291">
-        <v>9.45945945945946</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="F291">
         <v>100</v>
       </c>
       <c r="G291">
-        <v>63.51351351351352</v>
+        <v>63.99999999999999</v>
       </c>
     </row>
     <row r="292">
@@ -9220,19 +9221,19 @@
         </is>
       </c>
       <c r="C294">
-        <v>83.78378378378379</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="D294">
-        <v>10.81081081081081</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E294">
-        <v>5.405405405405405</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F294">
         <v>100</v>
       </c>
       <c r="G294">
-        <v>72.97297297297298</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="295">
@@ -9270,19 +9271,19 @@
         </is>
       </c>
       <c r="C296">
-        <v>79.81220657276995</v>
+        <v>79.90654205607477</v>
       </c>
       <c r="D296">
-        <v>12.20657276995305</v>
+        <v>12.14953271028037</v>
       </c>
       <c r="E296">
-        <v>7.981220657276995</v>
+        <v>7.943925233644859</v>
       </c>
       <c r="F296">
         <v>100</v>
       </c>
       <c r="G296">
-        <v>67.6056338028169</v>
+        <v>67.7570093457944</v>
       </c>
     </row>
     <row r="297">
@@ -9320,19 +9321,19 @@
         </is>
       </c>
       <c r="C298">
-        <v>77.53623188405797</v>
+        <v>77.69784172661871</v>
       </c>
       <c r="D298">
-        <v>13.76811594202899</v>
+        <v>13.66906474820144</v>
       </c>
       <c r="E298">
-        <v>8.695652173913043</v>
+        <v>8.633093525179856</v>
       </c>
       <c r="F298">
         <v>100</v>
       </c>
       <c r="G298">
-        <v>63.76811594202898</v>
+        <v>64.02877697841727</v>
       </c>
     </row>
     <row r="299">
@@ -9445,19 +9446,19 @@
         </is>
       </c>
       <c r="C303">
-        <v>77.91411042944786</v>
+        <v>78.04878048780488</v>
       </c>
       <c r="D303">
-        <v>9.202453987730062</v>
+        <v>9.146341463414634</v>
       </c>
       <c r="E303">
-        <v>12.88343558282209</v>
+        <v>12.80487804878049</v>
       </c>
       <c r="F303">
         <v>100</v>
       </c>
       <c r="G303">
-        <v>68.71165644171779</v>
+        <v>68.90243902439025</v>
       </c>
     </row>
     <row r="304">
@@ -9570,19 +9571,19 @@
         </is>
       </c>
       <c r="C308">
-        <v>76.19047619047619</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="D308">
-        <v>14.28571428571428</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="E308">
-        <v>9.523809523809524</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="F308">
         <v>100</v>
       </c>
       <c r="G308">
-        <v>61.90476190476191</v>
+        <v>56.52173913043477</v>
       </c>
     </row>
     <row r="309">
@@ -9620,19 +9621,19 @@
         </is>
       </c>
       <c r="C310">
-        <v>79.72972972972973</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="D310">
-        <v>12.83783783783784</v>
+        <v>12.25806451612903</v>
       </c>
       <c r="E310">
-        <v>7.432432432432432</v>
+        <v>7.096774193548387</v>
       </c>
       <c r="F310">
         <v>100</v>
       </c>
       <c r="G310">
-        <v>66.89189189189189</v>
+        <v>68.38709677419354</v>
       </c>
     </row>
     <row r="311">
@@ -9770,19 +9771,19 @@
         </is>
       </c>
       <c r="C316">
-        <v>76.92307692307693</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D316">
-        <v>19.23076923076923</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="E316">
-        <v>3.846153846153846</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="F316">
         <v>100</v>
       </c>
       <c r="G316">
-        <v>57.6923076923077</v>
+        <v>59.25925925925927</v>
       </c>
     </row>
     <row r="317">
@@ -9795,19 +9796,19 @@
         </is>
       </c>
       <c r="C317">
-        <v>80.93385214007782</v>
+        <v>80.6949806949807</v>
       </c>
       <c r="D317">
-        <v>10.89494163424125</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="E317">
-        <v>8.171206225680933</v>
+        <v>8.494208494208493</v>
       </c>
       <c r="F317">
         <v>100</v>
       </c>
       <c r="G317">
-        <v>70.03891050583657</v>
+        <v>69.88416988416989</v>
       </c>
     </row>
     <row r="318">
@@ -9845,19 +9846,19 @@
         </is>
       </c>
       <c r="C319">
-        <v>79.31034482758621</v>
+        <v>78.52348993288591</v>
       </c>
       <c r="D319">
-        <v>13.79310344827586</v>
+        <v>14.76510067114094</v>
       </c>
       <c r="E319">
-        <v>6.896551724137931</v>
+        <v>6.711409395973154</v>
       </c>
       <c r="F319">
         <v>100</v>
       </c>
       <c r="G319">
-        <v>65.51724137931035</v>
+        <v>63.75838926174497</v>
       </c>
     </row>
     <row r="320">
@@ -9970,19 +9971,19 @@
         </is>
       </c>
       <c r="C324">
-        <v>77.50511247443764</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D324">
-        <v>14.92842535787321</v>
+        <v>15</v>
       </c>
       <c r="E324">
-        <v>7.566462167689162</v>
+        <v>7.6</v>
       </c>
       <c r="F324">
         <v>100</v>
       </c>
       <c r="G324">
-        <v>62.57668711656443</v>
+        <v>62.40000000000001</v>
       </c>
     </row>
     <row r="325">
@@ -10020,19 +10021,19 @@
         </is>
       </c>
       <c r="C326">
-        <v>78.62318840579711</v>
+        <v>78.64768683274022</v>
       </c>
       <c r="D326">
-        <v>14.1304347826087</v>
+        <v>14.23487544483986</v>
       </c>
       <c r="E326">
-        <v>7.246376811594203</v>
+        <v>7.11743772241993</v>
       </c>
       <c r="F326">
         <v>100</v>
       </c>
       <c r="G326">
-        <v>64.49275362318841</v>
+        <v>64.41281138790036</v>
       </c>
     </row>
     <row r="327">
@@ -10095,19 +10096,19 @@
         </is>
       </c>
       <c r="C329">
-        <v>86.79245283018868</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="D329">
-        <v>9.433962264150944</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="E329">
-        <v>3.773584905660377</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="F329">
         <v>100</v>
       </c>
       <c r="G329">
-        <v>77.35849056603773</v>
+        <v>75.92592592592592</v>
       </c>
     </row>
     <row r="330">
@@ -10145,19 +10146,19 @@
         </is>
       </c>
       <c r="C331">
-        <v>81.86968838526913</v>
+        <v>81.65266106442577</v>
       </c>
       <c r="D331">
-        <v>12.88951841359773</v>
+        <v>13.16526610644258</v>
       </c>
       <c r="E331">
-        <v>5.240793201133145</v>
+        <v>5.182072829131653</v>
       </c>
       <c r="F331">
         <v>100</v>
       </c>
       <c r="G331">
-        <v>68.98016997167139</v>
+        <v>68.4873949579832</v>
       </c>
     </row>
     <row r="332">
@@ -10195,19 +10196,19 @@
         </is>
       </c>
       <c r="C333">
-        <v>78.27715355805243</v>
+        <v>77.94117647058823</v>
       </c>
       <c r="D333">
-        <v>13.48314606741573</v>
+        <v>13.60294117647059</v>
       </c>
       <c r="E333">
-        <v>8.239700374531834</v>
+        <v>8.455882352941178</v>
       </c>
       <c r="F333">
         <v>100</v>
       </c>
       <c r="G333">
-        <v>64.7940074906367</v>
+        <v>64.33823529411765</v>
       </c>
     </row>
     <row r="334">
@@ -10245,19 +10246,19 @@
         </is>
       </c>
       <c r="C335">
-        <v>81.3953488372093</v>
+        <v>77.19298245614034</v>
       </c>
       <c r="D335">
-        <v>16.27906976744186</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="E335">
-        <v>2.325581395348837</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="F335">
         <v>100</v>
       </c>
       <c r="G335">
-        <v>65.11627906976744</v>
+        <v>57.89473684210526</v>
       </c>
     </row>
     <row r="336">
@@ -10270,10 +10271,10 @@
         </is>
       </c>
       <c r="C336">
-        <v>95</v>
+        <v>94.33962264150944</v>
       </c>
       <c r="D336">
-        <v>5</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -10282,7 +10283,7 @@
         <v>100</v>
       </c>
       <c r="G336">
-        <v>90</v>
+        <v>88.67924528301887</v>
       </c>
     </row>
     <row r="337">
@@ -10295,19 +10296,19 @@
         </is>
       </c>
       <c r="C337">
-        <v>84.21052631578947</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="D337">
-        <v>10.52631578947368</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="E337">
-        <v>5.263157894736842</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="F337">
         <v>100</v>
       </c>
       <c r="G337">
-        <v>73.68421052631578</v>
+        <v>73.91304347826086</v>
       </c>
     </row>
     <row r="338">
@@ -10320,19 +10321,19 @@
         </is>
       </c>
       <c r="C338">
-        <v>72.54237288135593</v>
+        <v>72.61613691931539</v>
       </c>
       <c r="D338">
-        <v>22.03389830508474</v>
+        <v>22.49388753056235</v>
       </c>
       <c r="E338">
-        <v>5.423728813559322</v>
+        <v>4.88997555012225</v>
       </c>
       <c r="F338">
         <v>100</v>
       </c>
       <c r="G338">
-        <v>50.50847457627118</v>
+        <v>50.12224938875305</v>
       </c>
     </row>
     <row r="339">
@@ -10370,19 +10371,19 @@
         </is>
       </c>
       <c r="C340">
-        <v>77.45098039215686</v>
+        <v>82.5503355704698</v>
       </c>
       <c r="D340">
-        <v>20.58823529411764</v>
+        <v>14.76510067114094</v>
       </c>
       <c r="E340">
-        <v>1.96078431372549</v>
+        <v>2.684563758389262</v>
       </c>
       <c r="F340">
         <v>100</v>
       </c>
       <c r="G340">
-        <v>56.86274509803922</v>
+        <v>67.78523489932886</v>
       </c>
     </row>
     <row r="341">
@@ -10395,10 +10396,10 @@
         </is>
       </c>
       <c r="C341">
-        <v>96.55172413793103</v>
+        <v>97.22222222222221</v>
       </c>
       <c r="D341">
-        <v>3.448275862068965</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -10407,7 +10408,140 @@
         <v>100</v>
       </c>
       <c r="G341">
-        <v>93.10344827586206</v>
+        <v>94.44444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="C2">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="D2">
+        <v>82.25806451612904</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>74.19354838709678</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>10.36585365853658</v>
+      </c>
+      <c r="C3">
+        <v>9.146341463414634</v>
+      </c>
+      <c r="D3">
+        <v>80.48780487804879</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>70.12195121951221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>12.75033377837116</v>
+      </c>
+      <c r="C4">
+        <v>10.48064085447263</v>
+      </c>
+      <c r="D4">
+        <v>76.7690253671562</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>64.01869158878505</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tripadvisor</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>11.85860889395667</v>
+      </c>
+      <c r="C5">
+        <v>4.561003420752566</v>
+      </c>
+      <c r="D5">
+        <v>83.58038768529077</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>71.7217787913341</v>
       </c>
     </row>
   </sheetData>
